--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777533.7687357242</v>
+        <v>815671.5680037546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982512</v>
+        <v>335414.3901624709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8416580.895053174</v>
+        <v>8093437.458570886</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.172723217728397</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>100.2073205800065</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>201.216891947343</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>77.14804664098575</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>104.7886973743826</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4600581566905</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.40499639916244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.46550985000064</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.1409556434268</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>227.7664834517757</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609342</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>164.8783252168511</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>81.12200652863734</v>
+        <v>194.8806712903671</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255734</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1783,10 +1785,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.8475351671784</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>194.8806712903676</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1929,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>9.220846587376188</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.84234274505287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>136.8986664834666</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>108.1568209712021</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.0042946710584</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>286.0499486797341</v>
+        <v>108.0481078432942</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>184.5808806410316</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>53.87467807705912</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2694,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7219380236553</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>388.2361579131147</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>105.083968396267</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>176.8585984528613</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>61.28737103419864</v>
+        <v>130.1024780662195</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.0766988305489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>43.83743093372749</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>214.039385486368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>81.95591940744063</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.3980171505016</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>137.6323848247947</v>
+        <v>84.95149223441567</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2114886365804</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>94.6556856926066</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.9558523088938</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>2.501399875594893</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>265.9049740903932</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.9604071117561</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>286.9604071117561</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>286.9604071117561</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9604071117561</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>286.9604071117561</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>286.9604071117561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>1043.702758819062</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>818.7624959030018</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>818.7624959030018</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>818.7624959030018</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>552.8614515073789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>286.9604071117561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.9604071117561</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>677.2301425939104</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C3" t="n">
-        <v>677.2301425939104</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D3" t="n">
-        <v>528.2957329326591</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E3" t="n">
-        <v>369.0582779272036</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F3" t="n">
-        <v>222.5237199540885</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399123</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>524.903632156528</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490201</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>862.8376397732559</v>
       </c>
       <c r="T3" t="n">
-        <v>880.4795283993074</v>
+        <v>862.8376397732559</v>
       </c>
       <c r="U3" t="n">
-        <v>880.4795283993074</v>
+        <v>634.614021509645</v>
       </c>
       <c r="V3" t="n">
-        <v>880.4795283993074</v>
+        <v>634.614021509645</v>
       </c>
       <c r="W3" t="n">
-        <v>880.4795283993074</v>
+        <v>391.1652448655449</v>
       </c>
       <c r="X3" t="n">
-        <v>677.2301425939104</v>
+        <v>391.1652448655449</v>
       </c>
       <c r="Y3" t="n">
-        <v>677.2301425939104</v>
+        <v>391.1652448655449</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551287</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.626054809422</v>
+        <v>136.2159893136352</v>
       </c>
       <c r="C5" t="n">
-        <v>1104.626054809422</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="D5" t="n">
-        <v>1104.626054809422</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="E5" t="n">
-        <v>858.9304414063565</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="F5" t="n">
-        <v>579.9844679696338</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329111</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823541</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>608.5330896398996</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>383.2490523046881</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>383.2490523046881</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>383.2490523046881</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>383.2490523046881</v>
       </c>
       <c r="X5" t="n">
-        <v>1104.626054809422</v>
+        <v>383.2490523046881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1104.626054809422</v>
+        <v>136.2159893136352</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.7472568676422</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="C6" t="n">
-        <v>160.7472568676422</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="D6" t="n">
-        <v>160.7472568676422</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="E6" t="n">
-        <v>160.7472568676422</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="F6" t="n">
-        <v>160.7472568676422</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618843</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618843</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318534</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>165.799003153448</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>411.954469746149</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>685.3494183114808</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N6" t="n">
-        <v>838.129241226138</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="O6" t="n">
-        <v>1104.626054809422</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1008.180757940351</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>836.17674519153</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>836.17674519153</v>
+        <v>780.8165272660943</v>
       </c>
       <c r="U6" t="n">
-        <v>607.9581328256777</v>
+        <v>552.5934341401182</v>
       </c>
       <c r="V6" t="n">
-        <v>372.806024593935</v>
+        <v>317.4413259083755</v>
       </c>
       <c r="W6" t="n">
-        <v>372.806024593935</v>
+        <v>317.4413259083755</v>
       </c>
       <c r="X6" t="n">
-        <v>372.806024593935</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="Y6" t="n">
-        <v>328.9625938877103</v>
+        <v>109.5898257028427</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>35.69404619719919</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>35.69404619719919</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>35.69404619719919</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492713</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160686</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754622</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>291.098892013627</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>291.098892013627</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1524.301830724558</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>926.0606266465643</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>690.9085184148216</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>663.9100130487641</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508537</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5071,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5142,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5227,22 +5229,22 @@
         <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5279,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5306,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2615.207670282225</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5373,25 +5375,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.1385180919704</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>601.1385180919704</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>601.1385180919704</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>601.1385180919704</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>190.1526133023628</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.1385180919704</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
         <v>505.8730812692495</v>
@@ -5589,19 +5591,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694736</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>63.2569682722596</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2476.569858826099</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.607341885688</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.0584309830497</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C22" t="n">
-        <v>65.0584309830497</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D22" t="n">
-        <v>65.0584309830497</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="E22" t="n">
-        <v>65.0584309830497</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="F22" t="n">
-        <v>65.0584309830497</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="G22" t="n">
-        <v>65.0584309830497</v>
+        <v>163.1922959326898</v>
       </c>
       <c r="H22" t="n">
-        <v>65.0584309830497</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>65.0584309830497</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5950,10 +5952,10 @@
         <v>513.8405610245972</v>
       </c>
       <c r="X22" t="n">
-        <v>285.8510101265798</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.0584309830497</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1915.885988017521</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="C23" t="n">
-        <v>1915.885988017521</v>
+        <v>1736.086148788794</v>
       </c>
       <c r="D23" t="n">
-        <v>1557.620289410771</v>
+        <v>1377.820450182044</v>
       </c>
       <c r="E23" t="n">
-        <v>1171.832036812527</v>
+        <v>992.0321975837994</v>
       </c>
       <c r="F23" t="n">
-        <v>760.8461320229192</v>
+        <v>581.0462927941919</v>
       </c>
       <c r="G23" t="n">
-        <v>342.882323921106</v>
+        <v>163.0824846923788</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -5999,40 +6001,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W23" t="n">
-        <v>2289.351746278601</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X23" t="n">
-        <v>1915.885988017521</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y23" t="n">
-        <v>1915.885988017521</v>
+        <v>2105.048665729206</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>609.3508327416162</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C26" t="n">
-        <v>240.3883158012044</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>240.3883158012044</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>240.3883158012044</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>240.3883158012044</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>240.3883158012044</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312744</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.09000478155</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y26" t="n">
-        <v>995.9506728057379</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M27" t="n">
         <v>1237.953133915166</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>390.19300101686</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036446</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584.314837422907</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C29" t="n">
-        <v>1215.352320482495</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D29" t="n">
-        <v>857.0866218757444</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>857.0866218757444</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>446.1007170861369</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.914677487028</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6558,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>371.9203575519559</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>371.9203575519559</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U31" t="n">
-        <v>371.9203575519559</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="V31" t="n">
-        <v>371.9203575519559</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>371.9203575519559</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>371.9203575519559</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.9203575519559</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755379</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.242655630143</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.242655630143</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V32" t="n">
-        <v>2304.179768286573</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.411113016458</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X32" t="n">
-        <v>1577.945354755379</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1577.945354755379</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6783,37 +6785,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="C34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2157.383996541798</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2157.383996541798</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686825</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="U34" t="n">
-        <v>2425.560670420433</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="V34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="W34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="X34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="Y34" t="n">
-        <v>2170.876182214547</v>
+        <v>2305.297090124192</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1589.347031634718</v>
+        <v>1700.340352117536</v>
       </c>
       <c r="C35" t="n">
-        <v>1220.384514694307</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D35" t="n">
-        <v>1220.384514694307</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E35" t="n">
-        <v>834.5962620960622</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F35" t="n">
-        <v>423.6103573064547</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2086.940192181657</v>
       </c>
       <c r="W35" t="n">
-        <v>2366.086203674652</v>
+        <v>2086.940192181657</v>
       </c>
       <c r="X35" t="n">
-        <v>2366.086203674652</v>
+        <v>2086.940192181657</v>
       </c>
       <c r="Y35" t="n">
-        <v>1975.94687169884</v>
+        <v>2086.940192181657</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.69838933464703</v>
+        <v>500.139433308417</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084169</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y37" t="n">
-        <v>279.3468541648867</v>
+        <v>500.139433308417</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1226.657559460833</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>857.6950425204218</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>857.6950425204218</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.491813056149</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="W38" t="n">
-        <v>1986.723157786035</v>
+        <v>2258.570847632537</v>
       </c>
       <c r="X38" t="n">
-        <v>1613.257399524955</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y38" t="n">
-        <v>1613.257399524955</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
         <v>505.8730812692495</v>
@@ -7248,16 +7250,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y40" t="n">
-        <v>2179.742370083244</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1373.145632153538</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>1004.183115213127</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.183115213127</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E41" t="n">
-        <v>618.3948626148824</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1725.914287423652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1373.145632153538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1373.145632153538</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1373.145632153538</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7491,40 +7493,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>184.0273259635867</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1338.355738489329</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1338.355738489329</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>1338.355738489329</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>952.5674858910851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2639.593735007711</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2639.593735007711</v>
       </c>
       <c r="V44" t="n">
-        <v>1724.955578553451</v>
+        <v>2308.53084766414</v>
       </c>
       <c r="W44" t="n">
-        <v>1724.955578553451</v>
+        <v>1955.762192394026</v>
       </c>
       <c r="X44" t="n">
-        <v>1724.955578553451</v>
+        <v>1582.296434132946</v>
       </c>
       <c r="Y44" t="n">
-        <v>1724.955578553451</v>
+        <v>1192.157102157134</v>
       </c>
     </row>
     <row r="45">
@@ -7707,16 +7709,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464703</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -7846,10 +7848,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>256.9443198746407</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>399.2039605324505</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>266.0730132741479</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>178.7037257924976</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.292646620523</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,7 +11141,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>197.7391354821844</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22647,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>71.4758505238313</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>4.556093256134488</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>98.2793743957106</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>260.4841943966249</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>138.6917128032273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>139.005434824964</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194541</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>4.672818840028384</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>162.2776993781419</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>1.466740795711372</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>39.91394168141608</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.5928860200538</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>126.9165581689072</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>100.2996914017162</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>19.99691107496236</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23185,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047575</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>86.34584229143817</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23431,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555249</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>135.3263138290204</v>
+        <v>21.56764906729066</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735787</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>278.9366348536166</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>21.5676490672902</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.0259745112516</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.7423106070419</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>228.374225287541</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>48.01406787059302</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>34.1956645174786</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>37.87282408462301</v>
+        <v>215.874664921063</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>139.3418921233256</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>162.5736422805987</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>3.448950818139849</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>202.924692362643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.54801210768028</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>244.1570003211461</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>35.28694049715764</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168087</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>155.1609493234591</v>
+        <v>86.34584229143829</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>34.23310342850198</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25117,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>242.4444433082502</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>199.744784534427</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>245.7963390626943</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>61.91178510854928</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,13 +25444,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>190.1198736453402</v>
+        <v>242.8007662357192</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.62049154535694</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9289676594882</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>62.79640616124112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>17.6504619447791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13204062090063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9469204820629</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>61.84728437974167</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475826.4846459029</v>
+        <v>457120.4842963798</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485850.7333573399</v>
+        <v>460143.5209340464</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778370.5146468754</v>
+        <v>475826.4846459028</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149544.6052781992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150588.1755146548</v>
+      </c>
+      <c r="D2" t="n">
         <v>156006.1355264978</v>
-      </c>
-      <c r="C2" t="n">
-        <v>159463.6497950858</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="G2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="I2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="J2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="N2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.6875843893</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475253</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847333</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25282.26821261927</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25293.26066533936</v>
+      </c>
+      <c r="D4" t="n">
         <v>25338.71079138016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25384.5047005482</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26457,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="D5" t="n">
         <v>50134.40740683334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51181.37951678014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,28 +26484,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29861.4375466652</v>
+        <v>-4788.363229729475</v>
       </c>
       <c r="C6" t="n">
-        <v>67791.07799336819</v>
+        <v>72225.98554193182</v>
       </c>
       <c r="D6" t="n">
-        <v>-266892.1883078808</v>
+        <v>58168.030370749</v>
       </c>
       <c r="E6" t="n">
+        <v>-223801.4038377672</v>
+      </c>
+      <c r="F6" t="n">
+        <v>183919.0338458072</v>
+      </c>
+      <c r="G6" t="n">
+        <v>183919.0338458072</v>
+      </c>
+      <c r="H6" t="n">
         <v>183919.0338458071</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>183919.0338458072</v>
+      </c>
+      <c r="J6" t="n">
+        <v>120859.091246701</v>
+      </c>
+      <c r="K6" t="n">
+        <v>183005.7780433501</v>
+      </c>
+      <c r="L6" t="n">
+        <v>179191.4707269598</v>
+      </c>
+      <c r="M6" t="n">
+        <v>81484.91615517199</v>
+      </c>
+      <c r="N6" t="n">
         <v>183919.0338458071</v>
-      </c>
-      <c r="G6" t="n">
-        <v>183919.0338458071</v>
-      </c>
-      <c r="H6" t="n">
-        <v>183919.0338458072</v>
-      </c>
-      <c r="I6" t="n">
-        <v>183919.0338458071</v>
-      </c>
-      <c r="J6" t="n">
-        <v>115043.3351145574</v>
-      </c>
-      <c r="K6" t="n">
-        <v>180595.2600213319</v>
-      </c>
-      <c r="L6" t="n">
-        <v>83155.72190652671</v>
-      </c>
-      <c r="M6" t="n">
-        <v>183919.0338458071</v>
-      </c>
-      <c r="N6" t="n">
-        <v>183919.0338458072</v>
       </c>
       <c r="O6" t="n">
         <v>183919.0338458071</v>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="D3" t="n">
         <v>23.01338268678938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.02126071912529</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,28 +26804,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233591</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068883</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516667</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068871</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052409</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.140788987815579</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.441855221466299</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760113</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461251</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884597</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.217558194707</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.7213143567723</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840331</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081215</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411504</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796961</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587037</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847509</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.727517133052018</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727676</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335883</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358772</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192328</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833406</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650261</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164365</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263565</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504675</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89918574522732</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174383</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170838</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894673</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948808</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.66414560139404</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179675</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938405</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.28821036858792</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.83959271339006</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025626</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127.3525795169225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503281</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315784</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>154.3230534491487</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>46.23830557294078</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721081</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062263</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421935</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35504,7 +35506,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37792,7 +37794,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
